--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Outsourced_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Outsourced_Products_Unit_Cost.xlsx
@@ -858,7 +858,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Amul - French Fries 9 mm - 2.5 Kg</t>
+          <t>Amul - French Fry 9 mm - 2.5 Kg</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">

--- a/production_recipe_management_tool_v1.1/data/Unit_Cost/Outsourced_Products_Unit_Cost.xlsx
+++ b/production_recipe_management_tool_v1.1/data/Unit_Cost/Outsourced_Products_Unit_Cost.xlsx
@@ -25,88 +25,88 @@
     <t>Unit Cost</t>
   </si>
   <si>
-    <t>Chicken Darjeeling Momo</t>
-  </si>
-  <si>
-    <t>Chicken Darjeeling Momo Premium</t>
-  </si>
-  <si>
-    <t>Veg Momo</t>
-  </si>
-  <si>
-    <t>Cheesy Fish Fry</t>
-  </si>
-  <si>
-    <t>Chicken Nuggets Fry Premium (50 PC / 1 Kg)</t>
-  </si>
-  <si>
-    <t>Chicken Dim Sum</t>
-  </si>
-  <si>
-    <t>MIX VEG Dim sum</t>
-  </si>
-  <si>
-    <t>Diamond Fish Fry (Bhetki)</t>
-  </si>
-  <si>
-    <t>Fish Finger Fry (Bhetki)</t>
-  </si>
-  <si>
-    <t>Chicken Spring Roll Fry</t>
-  </si>
-  <si>
-    <t>LACHA PARATHA (ROLL SIZE) - 1kg - 10 Pieces</t>
-  </si>
-  <si>
-    <t>LACHA PARATHA (REGULAR SIZE) - 1kg - 12 Pieces</t>
-  </si>
-  <si>
-    <t>Malabar Flakey Paratha - 1kg - 10 Pieces</t>
-  </si>
-  <si>
-    <t>NAAN - 1 Pack - 10 Pieces</t>
-  </si>
-  <si>
-    <t>GARLIC NAAN - 1 Pack - 10 Pieces</t>
-  </si>
-  <si>
-    <t>MASALA KULCHA - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Alu paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Paneer Bhurjee Paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Mix veg Paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>Chicken Keema Paratha - 1 PC Pack - 5 Pieces</t>
-  </si>
-  <si>
-    <t>CORN CHEESE MOMO - 1kg - 40 Pieces</t>
-  </si>
-  <si>
-    <t>Tandori Veg Momo - 1kg - 40 Pieces</t>
-  </si>
-  <si>
-    <t>MUSHROOM CHEESE MOMO - 1kg - 35 Pieces</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Ambient 6" Plain Tortilla - 10 Pieces Pack</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Ambient 8.5" Plain Tortilla - 10 Pieces Pack</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Frozen 10.5" Plain Tortilla Wrap - 12 Pieces Pack</t>
-  </si>
-  <si>
-    <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4</t>
-  </si>
-  <si>
-    <t>Amul - French Fry 9 mm - 2.5 Kg</t>
+    <t>Chicken Darjeeling Momo D-Momo</t>
+  </si>
+  <si>
+    <t>Chicken Darjeeling Momo Premium D-Momo</t>
+  </si>
+  <si>
+    <t>Veg Momo D-Momo</t>
+  </si>
+  <si>
+    <t>Cheesy Fish Fry Food Hub</t>
+  </si>
+  <si>
+    <t>Chicken Nuggets Fry Premium (50 PC / 1 Kg) Food Hub</t>
+  </si>
+  <si>
+    <t>Chicken Dim Sum Bamboo</t>
+  </si>
+  <si>
+    <t>MIX VEG Dim sum Bamboo</t>
+  </si>
+  <si>
+    <t>Diamond Fish Fry (Bhetki) Bamboo</t>
+  </si>
+  <si>
+    <t>Fish Finger Fry (Bhetki) Bamboo</t>
+  </si>
+  <si>
+    <t>Chicken Spring Roll Fry Bamboo</t>
+  </si>
+  <si>
+    <t>LACHA PARATHA (ROLL SIZE) - 1kg - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>LACHA PARATHA (REGULAR SIZE) - 1kg - 12 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Malabar Flakey Paratha - 1kg - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>GARLIC NAAN - 1 Pack - 10 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>MASALA KULCHA - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Alu paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Paneer Bhurjee Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Mix veg Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Chicken Keema Paratha - 1 PC Pack - 5 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>CORN CHEESE MOMO - 1kg - 40 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Tandori Veg Momo - 1kg - 40 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>MUSHROOM CHEESE MOMO - 1kg - 35 Pieces EXQUISSITO FOODS</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Ambient 6" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Ambient 8.5" Plain Tortilla - 10 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Frozen 10.5" Plain Tortilla Wrap - 12 Pieces Pack Hyperpure</t>
+  </si>
+  <si>
+    <t>Fresh 2 Go - Frozen Garlic &amp; Coriander Naan - Pack of 4 Hyperpure</t>
+  </si>
+  <si>
+    <t>Amul - French Fry 9 mm - 2.5 Kg Hyperpure</t>
   </si>
   <si>
     <t>Pieces</t>
